--- a/fhir/indisa/StructureDefinition-ProfileCoverageKlinic.xlsx
+++ b/fhir/indisa/StructureDefinition-ProfileCoverageKlinic.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$111</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4093" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4130" uniqueCount="442">
   <si>
     <t>Path</t>
   </si>
@@ -485,6 +485,19 @@
   </si>
   <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>coverageIdentificationType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://digitalware-klinic.github.io/fhir/indisa/StructureDefinition/CoverageIdentificationType}
+</t>
+  </si>
+  <si>
+    <t>Coverage Identification Type</t>
+  </si>
+  <si>
+    <t>Identification coverage type</t>
   </si>
   <si>
     <t>Coverage.type.coding</t>
@@ -1533,7 +1546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO110"/>
+  <dimension ref="A1:AO111"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1543,7 +1556,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="53.5703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.93359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.0703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3352,43 +3365,41 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="F16" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J16" t="s" s="2">
+      <c r="K16" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>157</v>
-      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>42</v>
       </c>
@@ -3424,17 +3435,19 @@
         <v>42</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AB16" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
@@ -3446,13 +3459,13 @@
         <v>42</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>42</v>
@@ -3461,7 +3474,7 @@
         <v>42</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>42</v>
@@ -3469,20 +3482,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>42</v>
@@ -3494,19 +3505,19 @@
         <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>42</v>
@@ -3543,19 +3554,17 @@
         <v>42</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3573,7 +3582,7 @@
         <v>42</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>42</v>
@@ -3582,7 +3591,7 @@
         <v>42</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>42</v>
@@ -3590,18 +3599,20 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>42</v>
@@ -3610,19 +3621,23 @@
         <v>42</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>42</v>
       </c>
@@ -3670,25 +3685,25 @@
         <v>42</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>42</v>
@@ -3697,7 +3712,7 @@
         <v>42</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>42</v>
@@ -3705,18 +3720,18 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>42</v>
@@ -3728,17 +3743,15 @@
         <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>42</v>
@@ -3775,31 +3788,31 @@
         <v>42</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>42</v>
@@ -3822,18 +3835,18 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>42</v>
@@ -3842,29 +3855,27 @@
         <v>42</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>42</v>
@@ -3894,37 +3905,37 @@
         <v>42</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>42</v>
@@ -3933,7 +3944,7 @@
         <v>42</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>42</v>
@@ -3941,7 +3952,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3949,10 +3960,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>42</v>
@@ -3964,24 +3975,26 @@
         <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>42</v>
@@ -4023,7 +4036,7 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -4041,7 +4054,7 @@
         <v>42</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>42</v>
@@ -4050,7 +4063,7 @@
         <v>42</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>42</v>
@@ -4058,7 +4071,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4066,10 +4079,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>42</v>
@@ -4081,18 +4094,18 @@
         <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>42</v>
       </c>
@@ -4140,7 +4153,7 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4158,7 +4171,7 @@
         <v>42</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>42</v>
@@ -4167,7 +4180,7 @@
         <v>42</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>42</v>
@@ -4175,7 +4188,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4198,17 +4211,17 @@
         <v>52</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>42</v>
@@ -4257,7 +4270,7 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4275,7 +4288,7 @@
         <v>42</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>42</v>
@@ -4284,7 +4297,7 @@
         <v>42</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>42</v>
@@ -4292,7 +4305,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4300,10 +4313,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>42</v>
@@ -4315,19 +4328,17 @@
         <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>196</v>
+        <v>53</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>42</v>
@@ -4376,7 +4387,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4394,7 +4405,7 @@
         <v>42</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>42</v>
@@ -4403,7 +4414,7 @@
         <v>42</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>42</v>
@@ -4411,20 +4422,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>42</v>
@@ -4436,19 +4445,19 @@
         <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
@@ -4497,13 +4506,13 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>42</v>
@@ -4515,7 +4524,7 @@
         <v>42</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>42</v>
@@ -4524,7 +4533,7 @@
         <v>42</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>42</v>
@@ -4532,18 +4541,20 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>42</v>
@@ -4552,19 +4563,23 @@
         <v>42</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>42</v>
       </c>
@@ -4612,25 +4627,25 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>42</v>
@@ -4639,7 +4654,7 @@
         <v>42</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>42</v>
@@ -4647,18 +4662,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>42</v>
@@ -4670,17 +4685,15 @@
         <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>42</v>
@@ -4717,31 +4730,31 @@
         <v>42</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>42</v>
@@ -4764,18 +4777,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>42</v>
@@ -4784,29 +4797,27 @@
         <v>42</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>205</v>
+        <v>42</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>42</v>
@@ -4836,37 +4847,37 @@
         <v>42</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>42</v>
@@ -4875,7 +4886,7 @@
         <v>42</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>42</v>
@@ -4883,7 +4894,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4891,10 +4902,10 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>42</v>
@@ -4906,24 +4917,26 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>42</v>
@@ -4965,7 +4978,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4983,7 +4996,7 @@
         <v>42</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>42</v>
@@ -4992,7 +5005,7 @@
         <v>42</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>42</v>
@@ -5000,7 +5013,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5008,10 +5021,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>42</v>
@@ -5023,18 +5036,18 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>42</v>
       </c>
@@ -5082,7 +5095,7 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5100,7 +5113,7 @@
         <v>42</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>42</v>
@@ -5109,7 +5122,7 @@
         <v>42</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>42</v>
@@ -5117,7 +5130,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5140,17 +5153,17 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
@@ -5199,7 +5212,7 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5217,7 +5230,7 @@
         <v>42</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>42</v>
@@ -5226,7 +5239,7 @@
         <v>42</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>42</v>
@@ -5234,7 +5247,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5242,10 +5255,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>42</v>
@@ -5257,19 +5270,17 @@
         <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>196</v>
+        <v>53</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>42</v>
@@ -5318,7 +5329,7 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5336,7 +5347,7 @@
         <v>42</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>42</v>
@@ -5345,7 +5356,7 @@
         <v>42</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>42</v>
@@ -5353,7 +5364,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5376,19 +5387,19 @@
         <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>42</v>
@@ -5437,7 +5448,7 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5455,7 +5466,7 @@
         <v>42</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>42</v>
@@ -5464,7 +5475,7 @@
         <v>42</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>42</v>
@@ -5472,7 +5483,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5483,7 +5494,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>42</v>
@@ -5495,19 +5506,19 @@
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>216</v>
+        <v>53</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -5556,7 +5567,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5574,24 +5585,24 @@
         <v>42</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>42</v>
+        <v>217</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>222</v>
+        <v>42</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>224</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5602,7 +5613,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>42</v>
@@ -5611,19 +5622,23 @@
         <v>42</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5671,7 +5686,7 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>143</v>
+        <v>219</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5683,41 +5698,41 @@
         <v>42</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>42</v>
+        <v>225</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>42</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>42</v>
@@ -5729,17 +5744,15 @@
         <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5776,31 +5789,31 @@
         <v>42</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>42</v>
@@ -5823,18 +5836,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>42</v>
@@ -5843,19 +5856,19 @@
         <v>42</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>229</v>
+        <v>146</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5893,37 +5906,37 @@
         <v>42</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>232</v>
+        <v>42</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>42</v>
@@ -5940,7 +5953,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5948,10 +5961,10 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>42</v>
@@ -5963,16 +5976,16 @@
         <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5998,13 +6011,13 @@
         <v>42</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>237</v>
+        <v>42</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>238</v>
+        <v>42</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>42</v>
@@ -6022,7 +6035,7 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6031,7 +6044,7 @@
         <v>51</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>42</v>
+        <v>236</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>63</v>
@@ -6057,7 +6070,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6080,16 +6093,16 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6115,13 +6128,13 @@
         <v>42</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>42</v>
@@ -6139,7 +6152,7 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6157,7 +6170,7 @@
         <v>42</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>246</v>
+        <v>94</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>42</v>
@@ -6174,7 +6187,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6197,16 +6210,16 @@
         <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6256,7 +6269,7 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6274,7 +6287,7 @@
         <v>42</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>94</v>
+        <v>250</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
@@ -6291,7 +6304,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6302,7 +6315,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>42</v>
@@ -6314,20 +6327,18 @@
         <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>257</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>42</v>
       </c>
@@ -6375,7 +6386,7 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6393,24 +6404,24 @@
         <v>42</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>222</v>
+        <v>42</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>224</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6421,7 +6432,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>42</v>
@@ -6430,19 +6441,23 @@
         <v>42</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>53</v>
+        <v>257</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>141</v>
+        <v>258</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
       </c>
@@ -6490,7 +6505,7 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>143</v>
+        <v>256</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6502,41 +6517,41 @@
         <v>42</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>42</v>
+        <v>225</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>42</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>42</v>
@@ -6548,17 +6563,15 @@
         <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>42</v>
@@ -6595,31 +6608,31 @@
         <v>42</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>42</v>
@@ -6642,18 +6655,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>42</v>
@@ -6662,19 +6675,19 @@
         <v>42</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>229</v>
+        <v>146</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6712,37 +6725,37 @@
         <v>42</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>232</v>
+        <v>42</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>42</v>
@@ -6759,7 +6772,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6767,10 +6780,10 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>42</v>
@@ -6782,16 +6795,16 @@
         <v>52</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6817,13 +6830,13 @@
         <v>42</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>237</v>
+        <v>42</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>238</v>
+        <v>42</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>42</v>
@@ -6841,7 +6854,7 @@
         <v>42</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6850,7 +6863,7 @@
         <v>51</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>42</v>
+        <v>236</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>63</v>
@@ -6876,7 +6889,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6899,16 +6912,16 @@
         <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6934,13 +6947,13 @@
         <v>42</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>42</v>
@@ -6958,7 +6971,7 @@
         <v>42</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6976,7 +6989,7 @@
         <v>42</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>246</v>
+        <v>94</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>42</v>
@@ -6993,7 +7006,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7016,16 +7029,16 @@
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7075,7 +7088,7 @@
         <v>42</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7093,7 +7106,7 @@
         <v>42</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>94</v>
+        <v>250</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>42</v>
@@ -7110,7 +7123,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7136,15 +7149,15 @@
         <v>53</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>42</v>
       </c>
@@ -7192,7 +7205,7 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7210,19 +7223,19 @@
         <v>42</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>222</v>
+        <v>42</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>224</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" hidden="true">
@@ -7235,10 +7248,10 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>42</v>
@@ -7250,17 +7263,17 @@
         <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -7312,7 +7325,7 @@
         <v>268</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>51</v>
@@ -7324,27 +7337,27 @@
         <v>63</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>273</v>
+        <v>42</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7352,10 +7365,10 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>42</v>
@@ -7364,19 +7377,21 @@
         <v>42</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>53</v>
+        <v>273</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>141</v>
+        <v>274</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>142</v>
+        <v>275</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
       </c>
@@ -7424,10 +7439,10 @@
         <v>42</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>143</v>
+        <v>272</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>51</v>
@@ -7436,41 +7451,41 @@
         <v>42</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>42</v>
+        <v>225</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>42</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>42</v>
@@ -7482,17 +7497,15 @@
         <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>42</v>
@@ -7529,31 +7542,31 @@
         <v>42</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>42</v>
@@ -7576,18 +7589,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>42</v>
@@ -7596,19 +7609,19 @@
         <v>42</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>229</v>
+        <v>146</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7646,37 +7659,37 @@
         <v>42</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>232</v>
+        <v>42</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>42</v>
@@ -7693,7 +7706,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7701,10 +7714,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>42</v>
@@ -7716,16 +7729,16 @@
         <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7751,13 +7764,13 @@
         <v>42</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>237</v>
+        <v>42</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>238</v>
+        <v>42</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>42</v>
@@ -7775,7 +7788,7 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7784,7 +7797,7 @@
         <v>51</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>42</v>
+        <v>236</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>63</v>
@@ -7810,7 +7823,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7833,16 +7846,16 @@
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7868,13 +7881,13 @@
         <v>42</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>42</v>
@@ -7892,7 +7905,7 @@
         <v>42</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -7910,7 +7923,7 @@
         <v>42</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>246</v>
+        <v>94</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>42</v>
@@ -7927,7 +7940,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7950,16 +7963,16 @@
         <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8009,7 +8022,7 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8027,7 +8040,7 @@
         <v>42</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>94</v>
+        <v>250</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>42</v>
@@ -8044,7 +8057,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8070,17 +8083,15 @@
         <v>53</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>42</v>
       </c>
@@ -8128,7 +8139,7 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8146,16 +8157,16 @@
         <v>42</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>285</v>
+        <v>42</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>42</v>
@@ -8163,7 +8174,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8174,7 +8185,7 @@
         <v>43</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>42</v>
@@ -8183,22 +8194,22 @@
         <v>42</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>42</v>
@@ -8223,13 +8234,13 @@
         <v>42</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>237</v>
+        <v>42</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>292</v>
+        <v>42</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>293</v>
+        <v>42</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>42</v>
@@ -8247,7 +8258,7 @@
         <v>42</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8271,10 +8282,10 @@
         <v>42</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>42</v>
@@ -8282,7 +8293,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8293,7 +8304,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>42</v>
@@ -8305,16 +8316,20 @@
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>141</v>
+        <v>292</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>42</v>
       </c>
@@ -8338,13 +8353,13 @@
         <v>42</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>42</v>
+        <v>296</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>42</v>
+        <v>297</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>42</v>
@@ -8362,7 +8377,7 @@
         <v>42</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>143</v>
+        <v>291</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8374,19 +8389,19 @@
         <v>42</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>42</v>
+        <v>298</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>42</v>
@@ -8397,18 +8412,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>42</v>
@@ -8420,17 +8435,15 @@
         <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>42</v>
@@ -8467,31 +8480,31 @@
         <v>42</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>42</v>
@@ -8514,11 +8527,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8534,23 +8547,21 @@
         <v>42</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>42</v>
       </c>
@@ -8586,19 +8597,19 @@
         <v>42</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8610,13 +8621,13 @@
         <v>42</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>42</v>
@@ -8625,7 +8636,7 @@
         <v>42</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>42</v>
@@ -8633,7 +8644,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8644,7 +8655,7 @@
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>42</v>
@@ -8653,19 +8664,23 @@
         <v>42</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>42</v>
       </c>
@@ -8713,25 +8728,25 @@
         <v>42</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>42</v>
@@ -8740,7 +8755,7 @@
         <v>42</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>42</v>
@@ -8748,18 +8763,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>42</v>
@@ -8771,17 +8786,15 @@
         <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>42</v>
@@ -8818,31 +8831,31 @@
         <v>42</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>42</v>
@@ -8865,18 +8878,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>42</v>
@@ -8885,29 +8898,27 @@
         <v>42</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>301</v>
+        <v>42</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>42</v>
@@ -8937,37 +8948,37 @@
         <v>42</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>42</v>
@@ -8976,7 +8987,7 @@
         <v>42</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>42</v>
@@ -8984,7 +8995,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8992,10 +9003,10 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>42</v>
@@ -9007,24 +9018,26 @@
         <v>52</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>42</v>
@@ -9066,7 +9079,7 @@
         <v>42</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9084,7 +9097,7 @@
         <v>42</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>42</v>
@@ -9093,7 +9106,7 @@
         <v>42</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>42</v>
@@ -9101,7 +9114,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9109,10 +9122,10 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>42</v>
@@ -9124,18 +9137,18 @@
         <v>52</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>42</v>
       </c>
@@ -9183,7 +9196,7 @@
         <v>42</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9201,7 +9214,7 @@
         <v>42</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>42</v>
@@ -9210,7 +9223,7 @@
         <v>42</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>42</v>
@@ -9218,7 +9231,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9241,17 +9254,17 @@
         <v>52</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>190</v>
+        <v>308</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>42</v>
@@ -9300,7 +9313,7 @@
         <v>42</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9318,7 +9331,7 @@
         <v>42</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>42</v>
@@ -9327,7 +9340,7 @@
         <v>42</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>42</v>
@@ -9335,7 +9348,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9343,10 +9356,10 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>42</v>
@@ -9358,19 +9371,17 @@
         <v>52</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>196</v>
+        <v>53</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>42</v>
@@ -9419,7 +9430,7 @@
         <v>42</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9437,7 +9448,7 @@
         <v>42</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>42</v>
@@ -9446,7 +9457,7 @@
         <v>42</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>42</v>
@@ -9454,7 +9465,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9477,19 +9488,19 @@
         <v>52</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>42</v>
@@ -9538,7 +9549,7 @@
         <v>42</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -9556,7 +9567,7 @@
         <v>42</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>42</v>
@@ -9565,7 +9576,7 @@
         <v>42</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>42</v>
@@ -9573,7 +9584,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9596,17 +9607,19 @@
         <v>52</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>309</v>
+        <v>53</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>310</v>
+        <v>212</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="N69" t="s" s="2">
-        <v>312</v>
+        <v>215</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>42</v>
@@ -9655,7 +9668,7 @@
         <v>42</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>308</v>
+        <v>216</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -9670,19 +9683,19 @@
         <v>63</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>313</v>
+        <v>42</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>314</v>
+        <v>217</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>315</v>
+        <v>42</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>316</v>
+        <v>218</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>42</v>
@@ -9690,7 +9703,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9698,10 +9711,10 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>42</v>
@@ -9713,19 +9726,17 @@
         <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>42</v>
@@ -9774,13 +9785,13 @@
         <v>42</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AF70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG70" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>42</v>
@@ -9789,27 +9800,27 @@
         <v>63</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>42</v>
+        <v>317</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>42</v>
+        <v>318</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>324</v>
+        <v>42</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>326</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9817,10 +9828,10 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>42</v>
@@ -9829,19 +9840,23 @@
         <v>42</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>53</v>
+        <v>322</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>141</v>
+        <v>323</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>42</v>
       </c>
@@ -9889,53 +9904,53 @@
         <v>42</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>143</v>
+        <v>321</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>42</v>
+        <v>327</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>42</v>
+        <v>329</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>42</v>
+        <v>330</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>42</v>
@@ -9947,17 +9962,15 @@
         <v>42</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>42</v>
@@ -9994,31 +10007,31 @@
         <v>42</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>42</v>
@@ -10041,18 +10054,18 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>42</v>
@@ -10061,19 +10074,19 @@
         <v>42</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>229</v>
+        <v>146</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>330</v>
+        <v>100</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10111,37 +10124,37 @@
         <v>42</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>232</v>
+        <v>42</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>42</v>
@@ -10158,7 +10171,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10166,10 +10179,10 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>42</v>
@@ -10181,16 +10194,16 @@
         <v>52</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>236</v>
+        <v>334</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10216,13 +10229,13 @@
         <v>42</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>237</v>
+        <v>42</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>238</v>
+        <v>42</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>42</v>
@@ -10240,7 +10253,7 @@
         <v>42</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10249,7 +10262,7 @@
         <v>51</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>42</v>
+        <v>236</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>63</v>
@@ -10275,7 +10288,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10298,16 +10311,16 @@
         <v>52</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10333,13 +10346,13 @@
         <v>42</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>42</v>
@@ -10357,7 +10370,7 @@
         <v>42</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
@@ -10375,7 +10388,7 @@
         <v>42</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>246</v>
+        <v>94</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>42</v>
@@ -10392,7 +10405,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10415,16 +10428,16 @@
         <v>52</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10474,7 +10487,7 @@
         <v>42</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -10492,7 +10505,7 @@
         <v>42</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>94</v>
+        <v>250</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>42</v>
@@ -10509,7 +10522,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10520,7 +10533,7 @@
         <v>43</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>42</v>
@@ -10529,23 +10542,21 @@
         <v>42</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>335</v>
+        <v>53</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>336</v>
+        <v>252</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>337</v>
+        <v>253</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>42</v>
       </c>
@@ -10593,13 +10604,13 @@
         <v>42</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>334</v>
+        <v>255</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>42</v>
@@ -10611,7 +10622,7 @@
         <v>42</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>42</v>
@@ -10628,7 +10639,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10639,7 +10650,7 @@
         <v>43</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>42</v>
@@ -10651,16 +10662,20 @@
         <v>42</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>53</v>
+        <v>339</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>141</v>
+        <v>340</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>42</v>
       </c>
@@ -10708,25 +10723,25 @@
         <v>42</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>143</v>
+        <v>338</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>42</v>
@@ -10743,18 +10758,18 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>42</v>
@@ -10766,17 +10781,15 @@
         <v>42</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>42</v>
@@ -10825,19 +10838,19 @@
         <v>42</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>42</v>
@@ -10860,11 +10873,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>343</v>
+        <v>96</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10877,26 +10890,24 @@
         <v>42</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>344</v>
+        <v>98</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>345</v>
+        <v>146</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="N80" t="s" s="2">
-        <v>106</v>
-      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>42</v>
       </c>
@@ -10944,7 +10955,7 @@
         <v>42</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>346</v>
+        <v>150</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -10962,7 +10973,7 @@
         <v>42</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>42</v>
@@ -10979,30 +10990,30 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>42</v>
+        <v>347</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>348</v>
@@ -11010,9 +11021,11 @@
       <c r="L81" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M81" s="2"/>
+      <c r="M81" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N81" t="s" s="2">
-        <v>350</v>
+        <v>106</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>42</v>
@@ -11037,13 +11050,13 @@
         <v>42</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>237</v>
+        <v>42</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>351</v>
+        <v>42</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>352</v>
+        <v>42</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>42</v>
@@ -11061,25 +11074,25 @@
         <v>42</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>42</v>
@@ -11096,7 +11109,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11104,10 +11117,10 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>42</v>
@@ -11116,19 +11129,21 @@
         <v>42</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>141</v>
+        <v>352</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>142</v>
+        <v>353</v>
       </c>
       <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+      <c r="N82" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>42</v>
       </c>
@@ -11152,13 +11167,13 @@
         <v>42</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>42</v>
+        <v>355</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>42</v>
+        <v>356</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>42</v>
@@ -11176,10 +11191,10 @@
         <v>42</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>143</v>
+        <v>351</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>51</v>
@@ -11188,13 +11203,13 @@
         <v>42</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>42</v>
@@ -11211,18 +11226,18 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>42</v>
@@ -11234,17 +11249,15 @@
         <v>42</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>42</v>
@@ -11281,31 +11294,31 @@
         <v>42</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="AC83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>42</v>
@@ -11328,11 +11341,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11348,23 +11361,21 @@
         <v>42</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>42</v>
       </c>
@@ -11400,19 +11411,19 @@
         <v>42</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="AC84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -11424,13 +11435,13 @@
         <v>42</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>42</v>
@@ -11439,7 +11450,7 @@
         <v>42</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>42</v>
@@ -11447,7 +11458,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11458,7 +11469,7 @@
         <v>43</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>42</v>
@@ -11467,19 +11478,23 @@
         <v>42</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>42</v>
       </c>
@@ -11527,25 +11542,25 @@
         <v>42</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>42</v>
@@ -11554,7 +11569,7 @@
         <v>42</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>42</v>
@@ -11562,18 +11577,18 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>42</v>
@@ -11585,17 +11600,15 @@
         <v>42</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>42</v>
@@ -11632,31 +11645,31 @@
         <v>42</v>
       </c>
       <c r="AA86" t="s" s="2">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="AC86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD86" t="s" s="2">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>42</v>
@@ -11679,18 +11692,18 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>42</v>
@@ -11699,29 +11712,27 @@
         <v>42</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
-        <v>359</v>
+        <v>42</v>
       </c>
       <c r="R87" t="s" s="2">
         <v>42</v>
@@ -11751,37 +11762,37 @@
         <v>42</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="AC87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>42</v>
@@ -11790,7 +11801,7 @@
         <v>42</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>42</v>
@@ -11798,7 +11809,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11806,10 +11817,10 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>42</v>
@@ -11821,24 +11832,26 @@
         <v>52</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
-        <v>42</v>
+        <v>363</v>
       </c>
       <c r="R88" t="s" s="2">
         <v>42</v>
@@ -11880,7 +11893,7 @@
         <v>42</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>43</v>
@@ -11898,7 +11911,7 @@
         <v>42</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>42</v>
@@ -11907,7 +11920,7 @@
         <v>42</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>42</v>
@@ -11915,7 +11928,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11923,10 +11936,10 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>42</v>
@@ -11938,18 +11951,18 @@
         <v>52</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>42</v>
       </c>
@@ -11997,7 +12010,7 @@
         <v>42</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>43</v>
@@ -12015,7 +12028,7 @@
         <v>42</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>42</v>
@@ -12024,7 +12037,7 @@
         <v>42</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>42</v>
@@ -12032,7 +12045,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12055,17 +12068,17 @@
         <v>52</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>190</v>
+        <v>366</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>42</v>
@@ -12114,7 +12127,7 @@
         <v>42</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>43</v>
@@ -12132,7 +12145,7 @@
         <v>42</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>42</v>
@@ -12141,7 +12154,7 @@
         <v>42</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>42</v>
@@ -12149,7 +12162,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12157,10 +12170,10 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>42</v>
@@ -12172,19 +12185,17 @@
         <v>52</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>196</v>
+        <v>53</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>42</v>
@@ -12233,7 +12244,7 @@
         <v>42</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>43</v>
@@ -12251,7 +12262,7 @@
         <v>42</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>42</v>
@@ -12260,7 +12271,7 @@
         <v>42</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>42</v>
@@ -12268,7 +12279,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12291,19 +12302,19 @@
         <v>52</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>42</v>
@@ -12352,7 +12363,7 @@
         <v>42</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>43</v>
@@ -12370,7 +12381,7 @@
         <v>42</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>42</v>
@@ -12379,7 +12390,7 @@
         <v>42</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>42</v>
@@ -12387,7 +12398,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12395,10 +12406,10 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>42</v>
@@ -12413,16 +12424,16 @@
         <v>53</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>367</v>
+        <v>212</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>368</v>
+        <v>213</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>369</v>
+        <v>214</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>370</v>
+        <v>215</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>42</v>
@@ -12471,10 +12482,10 @@
         <v>42</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>366</v>
+        <v>216</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>51</v>
@@ -12489,24 +12500,24 @@
         <v>42</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>42</v>
+        <v>217</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>371</v>
+        <v>42</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>372</v>
+        <v>218</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>373</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12514,10 +12525,10 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>42</v>
@@ -12532,14 +12543,16 @@
         <v>53</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M94" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="N94" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>42</v>
@@ -12588,10 +12601,10 @@
         <v>42</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>51</v>
@@ -12612,13 +12625,13 @@
         <v>42</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="95" hidden="true">
@@ -12646,17 +12659,17 @@
         <v>52</v>
       </c>
       <c r="J95" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K95" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="K95" t="s" s="2">
+      <c r="L95" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>42</v>
@@ -12729,18 +12742,18 @@
         <v>42</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>42</v>
+        <v>375</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>286</v>
+        <v>376</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>42</v>
+        <v>377</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12763,7 +12776,7 @@
         <v>52</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>53</v>
+        <v>383</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>384</v>
@@ -12822,7 +12835,7 @@
         <v>42</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>43</v>
@@ -12846,10 +12859,10 @@
         <v>42</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>387</v>
+        <v>42</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>42</v>
@@ -12857,11 +12870,11 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>389</v>
+        <v>42</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -12877,22 +12890,20 @@
         <v>42</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>335</v>
+        <v>53</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>42</v>
@@ -12941,13 +12952,13 @@
         <v>42</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>42</v>
@@ -12965,7 +12976,7 @@
         <v>42</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>42</v>
+        <v>391</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>42</v>
@@ -12976,18 +12987,18 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>42</v>
+        <v>393</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>42</v>
@@ -12999,16 +13010,20 @@
         <v>42</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>53</v>
+        <v>339</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>141</v>
+        <v>394</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="O98" t="s" s="2">
         <v>42</v>
       </c>
@@ -13056,25 +13071,25 @@
         <v>42</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>143</v>
+        <v>392</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>42</v>
@@ -13091,18 +13106,18 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>42</v>
@@ -13114,17 +13129,15 @@
         <v>42</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>42</v>
@@ -13173,19 +13186,19 @@
         <v>42</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>42</v>
@@ -13208,11 +13221,11 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>343</v>
+        <v>96</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -13225,26 +13238,24 @@
         <v>42</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J100" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>344</v>
+        <v>98</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>345</v>
+        <v>146</v>
       </c>
       <c r="M100" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="N100" t="s" s="2">
-        <v>106</v>
-      </c>
+      <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>42</v>
       </c>
@@ -13292,7 +13303,7 @@
         <v>42</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>346</v>
+        <v>150</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>43</v>
@@ -13310,7 +13321,7 @@
         <v>42</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>42</v>
@@ -13327,42 +13338,42 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>42</v>
+        <v>347</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>398</v>
+        <v>348</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>401</v>
+        <v>106</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>42</v>
@@ -13387,13 +13398,13 @@
         <v>42</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>237</v>
+        <v>42</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>402</v>
+        <v>42</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>403</v>
+        <v>42</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>42</v>
@@ -13411,25 +13422,25 @@
         <v>42</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>397</v>
+        <v>350</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>42</v>
@@ -13446,7 +13457,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13454,7 +13465,7 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F102" t="s" s="2">
         <v>51</v>
@@ -13469,19 +13480,19 @@
         <v>52</v>
       </c>
       <c r="J102" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N102" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>42</v>
@@ -13506,13 +13517,13 @@
         <v>42</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>42</v>
+        <v>406</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>42</v>
+        <v>407</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>42</v>
@@ -13530,10 +13541,10 @@
         <v>42</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>51</v>
@@ -13554,18 +13565,18 @@
         <v>42</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>371</v>
+        <v>42</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>372</v>
+        <v>42</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>373</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13573,10 +13584,10 @@
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>42</v>
@@ -13585,20 +13596,22 @@
         <v>42</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>335</v>
+        <v>409</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>42</v>
@@ -13647,13 +13660,13 @@
         <v>42</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>42</v>
@@ -13671,18 +13684,18 @@
         <v>42</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>42</v>
+        <v>375</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>42</v>
+        <v>376</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>42</v>
+        <v>377</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13693,7 +13706,7 @@
         <v>43</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>42</v>
@@ -13705,16 +13718,18 @@
         <v>42</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>53</v>
+        <v>339</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>141</v>
+        <v>415</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>142</v>
+        <v>416</v>
       </c>
       <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
+      <c r="N104" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="O104" t="s" s="2">
         <v>42</v>
       </c>
@@ -13762,25 +13777,25 @@
         <v>42</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>143</v>
+        <v>414</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>42</v>
@@ -13797,18 +13812,18 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>42</v>
@@ -13820,17 +13835,15 @@
         <v>42</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M105" s="2"/>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>42</v>
@@ -13879,19 +13892,19 @@
         <v>42</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>42</v>
@@ -13914,11 +13927,11 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>343</v>
+        <v>96</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -13931,26 +13944,24 @@
         <v>42</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J106" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>344</v>
+        <v>98</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>345</v>
+        <v>146</v>
       </c>
       <c r="M106" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="N106" t="s" s="2">
-        <v>106</v>
-      </c>
+      <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>42</v>
       </c>
@@ -13998,7 +14009,7 @@
         <v>42</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>346</v>
+        <v>150</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>43</v>
@@ -14016,7 +14027,7 @@
         <v>42</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>42</v>
@@ -14033,40 +14044,42 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>42</v>
+        <v>347</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I107" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>417</v>
+        <v>348</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M107" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N107" t="s" s="2">
-        <v>419</v>
+        <v>106</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>42</v>
@@ -14091,13 +14104,13 @@
         <v>42</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>420</v>
+        <v>42</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>421</v>
+        <v>42</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>422</v>
+        <v>42</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>42</v>
@@ -14115,25 +14128,25 @@
         <v>42</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>416</v>
+        <v>350</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>42</v>
@@ -14150,7 +14163,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14158,7 +14171,7 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F108" t="s" s="2">
         <v>51</v>
@@ -14173,17 +14186,17 @@
         <v>52</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>42</v>
@@ -14208,13 +14221,13 @@
         <v>42</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>42</v>
+        <v>424</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>42</v>
+        <v>426</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>42</v>
@@ -14232,10 +14245,10 @@
         <v>42</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>51</v>
@@ -14278,7 +14291,7 @@
         <v>43</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>42</v>
@@ -14287,10 +14300,10 @@
         <v>42</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>196</v>
+        <v>313</v>
       </c>
       <c r="K109" t="s" s="2">
         <v>428</v>
@@ -14298,11 +14311,9 @@
       <c r="L109" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="M109" s="2"/>
+      <c r="N109" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>42</v>
@@ -14386,7 +14397,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14409,17 +14420,19 @@
         <v>42</v>
       </c>
       <c r="J110" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="K110" t="s" s="2">
+      <c r="M110" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="M110" s="2"/>
-      <c r="N110" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>42</v>
@@ -14468,13 +14481,13 @@
         <v>42</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>42</v>
@@ -14486,23 +14499,140 @@
         <v>42</v>
       </c>
       <c r="AK110" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO110" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M111" s="2"/>
+      <c r="N111" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK111" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="AL110" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AO110" t="s" s="2">
-        <v>224</v>
+      <c r="AL111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AO111" t="s" s="2">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO110">
+  <autoFilter ref="A1:AO111">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14512,7 +14642,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI109">
+  <conditionalFormatting sqref="A2:AI110">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/fhir/indisa/StructureDefinition-ProfileCoverageKlinic.xlsx
+++ b/fhir/indisa/StructureDefinition-ProfileCoverageKlinic.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5699" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5699" uniqueCount="445">
   <si>
     <t>Path</t>
   </si>
@@ -656,7 +656,7 @@
     <t>localTypeCode</t>
   </si>
   <si>
-    <t>https://digitalware-klinic.github.io/fhir/indisa/CodeSystem/coverage-type-cl</t>
+    <t>https://digitalware-klinic.github.io/fhir/indisa/CodeSystem-CoveragesTypeCl</t>
   </si>
   <si>
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).
@@ -694,7 +694,7 @@
     <t>Coverage.policyHolder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson|Organization)
+    <t xml:space="preserve">Reference(Patient|Organization)
 </t>
   </si>
   <si>
@@ -811,57 +811,53 @@
     <t>Coverage.subscriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
-</t>
-  </si>
-  <si>
-    <t>Subscriber to the policy</t>
-  </si>
-  <si>
-    <t>The party who has signed-up for or 'owns' the contractual relationship to the policy or to whom the benefit of the policy for services rendered to them or their family is due.</t>
-  </si>
-  <si>
-    <t>May be self or a parent in the case of dependants.</t>
-  </si>
-  <si>
-    <t>This is the party who is entitled to the benfits under the policy.</t>
-  </si>
-  <si>
-    <t>Coverage.subscriber.id</t>
-  </si>
-  <si>
-    <t>Coverage.subscriber.extension</t>
-  </si>
-  <si>
-    <t>Coverage.subscriber.reference</t>
-  </si>
-  <si>
-    <t>Coverage.subscriber.type</t>
-  </si>
-  <si>
-    <t>Coverage.subscriber.identifier</t>
-  </si>
-  <si>
-    <t>Coverage.subscriber.display</t>
-  </si>
-  <si>
-    <t>Coverage.subscriberId</t>
-  </si>
-  <si>
-    <t>ID assigned to the subscriber</t>
-  </si>
-  <si>
-    <t>The insurer assigned ID for the Subscriber.</t>
-  </si>
-  <si>
-    <t>The insurer requires this identifier on correspondance and claims (digital and otherwise).</t>
-  </si>
-  <si>
-    <t>Coverage.beneficiary</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reference(Patient)
 </t>
+  </si>
+  <si>
+    <t>Subscriber to the policy</t>
+  </si>
+  <si>
+    <t>The party who has signed-up for or 'owns' the contractual relationship to the policy or to whom the benefit of the policy for services rendered to them or their family is due.</t>
+  </si>
+  <si>
+    <t>May be self or a parent in the case of dependants.</t>
+  </si>
+  <si>
+    <t>This is the party who is entitled to the benfits under the policy.</t>
+  </si>
+  <si>
+    <t>Coverage.subscriber.id</t>
+  </si>
+  <si>
+    <t>Coverage.subscriber.extension</t>
+  </si>
+  <si>
+    <t>Coverage.subscriber.reference</t>
+  </si>
+  <si>
+    <t>Coverage.subscriber.type</t>
+  </si>
+  <si>
+    <t>Coverage.subscriber.identifier</t>
+  </si>
+  <si>
+    <t>Coverage.subscriber.display</t>
+  </si>
+  <si>
+    <t>Coverage.subscriberId</t>
+  </si>
+  <si>
+    <t>ID assigned to the subscriber</t>
+  </si>
+  <si>
+    <t>The insurer assigned ID for the Subscriber.</t>
+  </si>
+  <si>
+    <t>The insurer requires this identifier on correspondance and claims (digital and otherwise).</t>
+  </si>
+  <si>
+    <t>Coverage.beneficiary</t>
   </si>
   <si>
     <t>Plan beneficiary</t>
@@ -1017,7 +1013,7 @@
     <t>Coverage.payor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Organization|Patient)
 </t>
   </si>
   <si>
@@ -1217,8 +1213,8 @@
   </si>
   <si>
     <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.
-For public coverage:  http://digitalware.com.co/salud/fhir/CodeSystem/tramos-FONASA
-for private coverage:  http://digitalware.com.co/salud/fhir/CodeSystem/ISAPRES</t>
+For public coverage:  https://digitalware-klinic.github.io/fhir/indisa/CodeSystem-TramosFONASA
+for private coverage:  https://digitalware-klinic.github.io/fhir/indisa/CodeSystem-ISAPRES</t>
   </si>
   <si>
     <t>Coverage.class.type.text</t>
@@ -1569,47 +1565,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.93359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.55859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="52.78125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="144.8984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.83984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="25.8515625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="42.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="139.6484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.51171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="24.125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="46.52734375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="59.4453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="51.26953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="62.85546875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.57421875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="45.9453125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="54.171875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="50.94140625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="57.1640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1864,7 +1860,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>51</v>
@@ -7277,17 +7273,17 @@
         <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -7351,7 +7347,7 @@
         <v>63</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>42</v>
@@ -7371,7 +7367,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7486,7 +7482,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7603,7 +7599,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7720,7 +7716,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7837,7 +7833,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7954,7 +7950,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8071,7 +8067,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8097,16 +8093,16 @@
         <v>53</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>42</v>
@@ -8155,7 +8151,7 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8179,10 +8175,10 @@
         <v>42</v>
       </c>
       <c r="AM56" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>42</v>
@@ -8190,7 +8186,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8216,16 +8212,16 @@
         <v>132</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>42</v>
@@ -8253,11 +8249,11 @@
         <v>237</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="Z57" t="s" s="2">
         <v>42</v>
       </c>
@@ -8274,7 +8270,7 @@
         <v>42</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8298,7 +8294,7 @@
         <v>42</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>42</v>
@@ -8309,7 +8305,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8424,7 +8420,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8541,7 +8537,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8660,7 +8656,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8775,7 +8771,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8892,7 +8888,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8934,7 +8930,7 @@
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>42</v>
@@ -9011,7 +9007,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9128,7 +9124,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9157,7 +9153,7 @@
         <v>182</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
@@ -9245,7 +9241,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9362,7 +9358,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9481,7 +9477,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9600,7 +9596,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9623,17 +9619,17 @@
         <v>52</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>42</v>
@@ -9682,7 +9678,7 @@
         <v>42</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -9697,19 +9693,19 @@
         <v>63</v>
       </c>
       <c r="AJ69" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AK69" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AK69" t="s" s="2">
+      <c r="AL69" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AL69" t="s" s="2">
+      <c r="AM69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>42</v>
@@ -9717,7 +9713,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9740,19 +9736,19 @@
         <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>42</v>
@@ -9801,7 +9797,7 @@
         <v>42</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>51</v>
@@ -9822,21 +9818,21 @@
         <v>42</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AN70" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AN70" t="s" s="2">
+      <c r="AO70" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>326</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9951,7 +9947,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10068,7 +10064,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10100,7 +10096,7 @@
         <v>229</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10185,7 +10181,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10302,7 +10298,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10419,7 +10415,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10536,7 +10532,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10559,19 +10555,19 @@
         <v>42</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>42</v>
@@ -10608,7 +10604,7 @@
         <v>42</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AB77" s="2"/>
       <c r="AC77" t="s" s="2">
@@ -10618,7 +10614,7 @@
         <v>149</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
@@ -10653,7 +10649,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10768,7 +10764,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10885,11 +10881,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10911,10 +10907,10 @@
         <v>97</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>100</v>
@@ -10969,7 +10965,7 @@
         <v>42</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -11004,7 +11000,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11030,14 +11026,14 @@
         <v>132</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>42</v>
@@ -11065,11 +11061,11 @@
         <v>237</v>
       </c>
       <c r="X81" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="Y81" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="Y81" t="s" s="2">
-        <v>353</v>
-      </c>
       <c r="Z81" t="s" s="2">
         <v>42</v>
       </c>
@@ -11086,7 +11082,7 @@
         <v>42</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>51</v>
@@ -11121,7 +11117,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11147,16 +11143,16 @@
         <v>53</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>42</v>
@@ -11205,7 +11201,7 @@
         <v>42</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>51</v>
@@ -11229,18 +11225,18 @@
         <v>42</v>
       </c>
       <c r="AM82" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AN82" t="s" s="2">
+      <c r="AO82" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>361</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11266,14 +11262,14 @@
         <v>53</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>42</v>
@@ -11322,7 +11318,7 @@
         <v>42</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -11346,21 +11342,21 @@
         <v>42</v>
       </c>
       <c r="AM83" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AN83" t="s" s="2">
+      <c r="AO83" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>361</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>42</v>
@@ -11382,19 +11378,19 @@
         <v>42</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="K84" t="s" s="2">
+      <c r="L84" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>42</v>
@@ -11443,7 +11439,7 @@
         <v>42</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -11478,7 +11474,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11593,7 +11589,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11710,11 +11706,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11736,10 +11732,10 @@
         <v>97</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>100</v>
@@ -11794,7 +11790,7 @@
         <v>42</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
@@ -11829,7 +11825,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11855,14 +11851,14 @@
         <v>132</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>42</v>
@@ -11890,11 +11886,11 @@
         <v>237</v>
       </c>
       <c r="X88" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="Y88" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="Y88" t="s" s="2">
-        <v>353</v>
-      </c>
       <c r="Z88" t="s" s="2">
         <v>42</v>
       </c>
@@ -11911,7 +11907,7 @@
         <v>42</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>51</v>
@@ -11946,7 +11942,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12061,7 +12057,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12178,7 +12174,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12295,10 +12291,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B92" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>42</v>
@@ -12416,7 +12412,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12531,7 +12527,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12648,7 +12644,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12690,7 +12686,7 @@
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="R95" t="s" s="2">
         <v>42</v>
@@ -12767,7 +12763,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12884,7 +12880,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12913,7 +12909,7 @@
         <v>182</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
@@ -12924,7 +12920,7 @@
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="R97" t="s" s="2">
         <v>42</v>
@@ -13001,7 +12997,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13118,7 +13114,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13237,10 +13233,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C100" t="s" s="2">
         <v>42</v>
@@ -13358,7 +13354,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13473,7 +13469,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13590,7 +13586,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13622,7 +13618,7 @@
         <v>167</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N103" t="s" s="2">
         <v>169</v>
@@ -13709,7 +13705,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13826,7 +13822,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13855,7 +13851,7 @@
         <v>182</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" t="s" s="2">
@@ -13943,7 +13939,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14060,7 +14056,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14179,7 +14175,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14298,7 +14294,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14324,16 +14320,16 @@
         <v>53</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="M109" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>42</v>
@@ -14382,7 +14378,7 @@
         <v>42</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>51</v>
@@ -14406,18 +14402,18 @@
         <v>42</v>
       </c>
       <c r="AM109" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN109" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AN109" t="s" s="2">
+      <c r="AO109" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AO109" t="s" s="2">
-        <v>361</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14443,14 +14439,14 @@
         <v>53</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>42</v>
@@ -14499,7 +14495,7 @@
         <v>42</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>43</v>
@@ -14523,21 +14519,21 @@
         <v>42</v>
       </c>
       <c r="AM110" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN110" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AN110" t="s" s="2">
+      <c r="AO110" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AO110" t="s" s="2">
-        <v>361</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C111" t="s" s="2">
         <v>42</v>
@@ -14559,19 +14555,19 @@
         <v>42</v>
       </c>
       <c r="J111" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K111" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="K111" t="s" s="2">
+      <c r="L111" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L111" t="s" s="2">
+      <c r="M111" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>42</v>
@@ -14620,7 +14616,7 @@
         <v>42</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>43</v>
@@ -14655,7 +14651,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14770,7 +14766,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14887,11 +14883,11 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -14913,10 +14909,10 @@
         <v>97</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="M114" t="s" s="2">
         <v>100</v>
@@ -14971,7 +14967,7 @@
         <v>42</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>43</v>
@@ -15006,7 +15002,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15032,14 +15028,14 @@
         <v>132</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L115" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>42</v>
@@ -15067,11 +15063,11 @@
         <v>237</v>
       </c>
       <c r="X115" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="Y115" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="Y115" t="s" s="2">
-        <v>353</v>
-      </c>
       <c r="Z115" t="s" s="2">
         <v>42</v>
       </c>
@@ -15088,7 +15084,7 @@
         <v>42</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>51</v>
@@ -15123,7 +15119,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15238,7 +15234,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15355,7 +15351,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15472,10 +15468,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B119" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="C119" t="s" s="2">
         <v>42</v>
@@ -15593,7 +15589,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15708,7 +15704,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15825,7 +15821,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15867,7 +15863,7 @@
       </c>
       <c r="P122" s="2"/>
       <c r="Q122" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="R122" t="s" s="2">
         <v>42</v>
@@ -15944,7 +15940,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16061,7 +16057,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16090,7 +16086,7 @@
         <v>182</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" t="s" s="2">
@@ -16101,7 +16097,7 @@
       </c>
       <c r="P124" s="2"/>
       <c r="Q124" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="R124" t="s" s="2">
         <v>42</v>
@@ -16178,7 +16174,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16295,7 +16291,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16414,10 +16410,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C127" t="s" s="2">
         <v>42</v>
@@ -16535,7 +16531,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16650,7 +16646,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16767,7 +16763,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16886,7 +16882,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17003,7 +16999,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17032,7 +17028,7 @@
         <v>182</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" t="s" s="2">
@@ -17120,7 +17116,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17237,7 +17233,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17356,7 +17352,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17475,7 +17471,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17501,16 +17497,16 @@
         <v>53</v>
       </c>
       <c r="K136" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L136" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L136" t="s" s="2">
+      <c r="M136" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M136" t="s" s="2">
+      <c r="N136" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>42</v>
@@ -17559,7 +17555,7 @@
         <v>42</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>51</v>
@@ -17583,18 +17579,18 @@
         <v>42</v>
       </c>
       <c r="AM136" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN136" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AN136" t="s" s="2">
+      <c r="AO136" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AO136" t="s" s="2">
-        <v>361</v>
       </c>
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17620,14 +17616,14 @@
         <v>53</v>
       </c>
       <c r="K137" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L137" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L137" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>42</v>
@@ -17676,7 +17672,7 @@
         <v>42</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>43</v>
@@ -17700,18 +17696,18 @@
         <v>42</v>
       </c>
       <c r="AM137" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN137" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AN137" t="s" s="2">
+      <c r="AO137" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AO137" t="s" s="2">
-        <v>361</v>
       </c>
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17734,17 +17730,17 @@
         <v>52</v>
       </c>
       <c r="J138" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K138" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="K138" t="s" s="2">
+      <c r="L138" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>42</v>
@@ -17793,7 +17789,7 @@
         <v>42</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>43</v>
@@ -17820,7 +17816,7 @@
         <v>42</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>42</v>
@@ -17828,7 +17824,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17854,14 +17850,14 @@
         <v>53</v>
       </c>
       <c r="K139" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L139" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>42</v>
@@ -17910,7 +17906,7 @@
         <v>42</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>43</v>
@@ -17934,7 +17930,7 @@
         <v>42</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>42</v>
@@ -17945,11 +17941,11 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -17968,19 +17964,19 @@
         <v>42</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L140" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L140" t="s" s="2">
+      <c r="M140" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M140" t="s" s="2">
+      <c r="N140" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>42</v>
@@ -18029,7 +18025,7 @@
         <v>42</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>43</v>
@@ -18064,7 +18060,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18179,7 +18175,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18296,11 +18292,11 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -18322,10 +18318,10 @@
         <v>97</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L143" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="M143" t="s" s="2">
         <v>100</v>
@@ -18380,7 +18376,7 @@
         <v>42</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>43</v>
@@ -18415,7 +18411,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18441,16 +18437,16 @@
         <v>132</v>
       </c>
       <c r="K144" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L144" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L144" t="s" s="2">
+      <c r="M144" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M144" t="s" s="2">
+      <c r="N144" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>42</v>
@@ -18478,11 +18474,11 @@
         <v>237</v>
       </c>
       <c r="X144" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="Y144" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="Y144" t="s" s="2">
-        <v>411</v>
-      </c>
       <c r="Z144" t="s" s="2">
         <v>42</v>
       </c>
@@ -18499,7 +18495,7 @@
         <v>42</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>43</v>
@@ -18534,7 +18530,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18557,19 +18553,19 @@
         <v>52</v>
       </c>
       <c r="J145" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="K145" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="K145" t="s" s="2">
+      <c r="L145" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L145" t="s" s="2">
+      <c r="M145" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="M145" t="s" s="2">
+      <c r="N145" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>42</v>
@@ -18618,7 +18614,7 @@
         <v>42</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>51</v>
@@ -18642,18 +18638,18 @@
         <v>42</v>
       </c>
       <c r="AM145" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN145" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AN145" t="s" s="2">
+      <c r="AO145" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AO145" t="s" s="2">
-        <v>361</v>
       </c>
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18676,17 +18672,17 @@
         <v>42</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K146" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L146" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="L146" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>42</v>
@@ -18735,7 +18731,7 @@
         <v>42</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>43</v>
@@ -18770,7 +18766,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18885,7 +18881,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19002,11 +18998,11 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -19028,10 +19024,10 @@
         <v>97</v>
       </c>
       <c r="K149" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L149" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="M149" t="s" s="2">
         <v>100</v>
@@ -19086,7 +19082,7 @@
         <v>42</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>43</v>
@@ -19121,7 +19117,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19147,14 +19143,14 @@
         <v>132</v>
       </c>
       <c r="K150" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L150" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>42</v>
@@ -19179,14 +19175,14 @@
         <v>42</v>
       </c>
       <c r="W150" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="X150" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="X150" t="s" s="2">
+      <c r="Y150" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="Y150" t="s" s="2">
-        <v>430</v>
-      </c>
       <c r="Z150" t="s" s="2">
         <v>42</v>
       </c>
@@ -19203,7 +19199,7 @@
         <v>42</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>51</v>
@@ -19238,7 +19234,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19261,17 +19257,17 @@
         <v>52</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K151" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L151" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>42</v>
@@ -19320,7 +19316,7 @@
         <v>42</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>43</v>
@@ -19355,7 +19351,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -19381,16 +19377,16 @@
         <v>196</v>
       </c>
       <c r="K152" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L152" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L152" t="s" s="2">
+      <c r="M152" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="M152" t="s" s="2">
+      <c r="N152" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>42</v>
@@ -19439,7 +19435,7 @@
         <v>42</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>43</v>
@@ -19474,7 +19470,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19497,17 +19493,17 @@
         <v>42</v>
       </c>
       <c r="J153" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="K153" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="K153" t="s" s="2">
+      <c r="L153" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="L153" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>42</v>
@@ -19556,7 +19552,7 @@
         <v>42</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>43</v>
@@ -19583,7 +19579,7 @@
         <v>222</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AO153" t="s" s="2">
         <v>224</v>

--- a/fhir/indisa/StructureDefinition-ProfileCoverageKlinic.xlsx
+++ b/fhir/indisa/StructureDefinition-ProfileCoverageKlinic.xlsx
@@ -1565,47 +1565,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.55859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.5703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.93359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="52.78125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="139.6484375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.51171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="24.125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="144.8984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.83984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="25.8515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="42.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.57421875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="45.9453125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="54.171875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="50.94140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="57.1640625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="46.52734375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="59.4453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="51.26953125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="62.85546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
